--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H2">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I2">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J2">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>4706.330048287394</v>
+        <v>10262.53206726738</v>
       </c>
       <c r="R2">
-        <v>18825.32019314958</v>
+        <v>41050.12826906951</v>
       </c>
       <c r="S2">
-        <v>0.008068309036526526</v>
+        <v>0.01496250038191899</v>
       </c>
       <c r="T2">
-        <v>0.004642768381573434</v>
+        <v>0.009107864411110746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H3">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I3">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J3">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>3396.241314690291</v>
+        <v>6047.074773548011</v>
       </c>
       <c r="R3">
-        <v>20377.44788814175</v>
+        <v>36282.44864128807</v>
       </c>
       <c r="S3">
-        <v>0.005822355042760294</v>
+        <v>0.00881647511702216</v>
       </c>
       <c r="T3">
-        <v>0.005025559713276595</v>
+        <v>0.008050050917305734</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H4">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I4">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J4">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>2417.31612184951</v>
+        <v>3951.78624228863</v>
       </c>
       <c r="R4">
-        <v>14503.89673109706</v>
+        <v>23710.71745373178</v>
       </c>
       <c r="S4">
-        <v>0.004144132117796738</v>
+        <v>0.00576159984416498</v>
       </c>
       <c r="T4">
-        <v>0.003577003337093184</v>
+        <v>0.00526073873005321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H5">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I5">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J5">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>4000.883397930034</v>
+        <v>8759.677239721095</v>
       </c>
       <c r="R5">
-        <v>16003.53359172014</v>
+        <v>35038.70895888438</v>
       </c>
       <c r="S5">
-        <v>0.006858924755044429</v>
+        <v>0.01277137778334985</v>
       </c>
       <c r="T5">
-        <v>0.00394684918985464</v>
+        <v>0.007774100198813437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H6">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I6">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J6">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>3481.142995173826</v>
+        <v>3047.473361299141</v>
       </c>
       <c r="R6">
-        <v>20886.85797104295</v>
+        <v>18284.84016779485</v>
       </c>
       <c r="S6">
-        <v>0.005967906457309059</v>
+        <v>0.004443135576429703</v>
       </c>
       <c r="T6">
-        <v>0.005151192265705055</v>
+        <v>0.004056889760137206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H7">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I7">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J7">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>2277.300471271844</v>
+        <v>4392.189792661597</v>
       </c>
       <c r="R7">
-        <v>13663.80282763107</v>
+        <v>26353.13875596958</v>
       </c>
       <c r="S7">
-        <v>0.003904095926705123</v>
+        <v>0.006403696575016766</v>
       </c>
       <c r="T7">
-        <v>0.003369816347839007</v>
+        <v>0.005847017408162639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I8">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J8">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>42598.50455793369</v>
+        <v>52169.86369539116</v>
       </c>
       <c r="R8">
-        <v>255591.0273476022</v>
+        <v>313019.182172347</v>
       </c>
       <c r="S8">
-        <v>0.07302885597502082</v>
+        <v>0.07606228174006588</v>
       </c>
       <c r="T8">
-        <v>0.06303478125249276</v>
+        <v>0.06945011841657596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I9">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J9">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>30740.47073607246</v>
@@ -1013,10 +1013,10 @@
         <v>276664.2366246522</v>
       </c>
       <c r="S9">
-        <v>0.05270000515947389</v>
+        <v>0.04481879346286191</v>
       </c>
       <c r="T9">
-        <v>0.06823193214957925</v>
+        <v>0.06138398248269127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I10">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J10">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>21879.90446442332</v>
+        <v>20089.01392582109</v>
       </c>
       <c r="R10">
-        <v>196919.1401798099</v>
+        <v>180801.1253323898</v>
       </c>
       <c r="S10">
-        <v>0.03750987055675863</v>
+        <v>0.02928925109001003</v>
       </c>
       <c r="T10">
-        <v>0.04856490877037718</v>
+        <v>0.04011466478521123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I11">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J11">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>36213.28039339335</v>
+        <v>44530.05989325533</v>
       </c>
       <c r="R11">
-        <v>217279.6823603601</v>
+        <v>267180.359359532</v>
       </c>
       <c r="S11">
-        <v>0.0620823304873416</v>
+        <v>0.06492364981589971</v>
       </c>
       <c r="T11">
-        <v>0.05358629913705732</v>
+        <v>0.05927977789516468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I12">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J12">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>31508.94310965156</v>
+        <v>15491.91455210189</v>
       </c>
       <c r="R12">
-        <v>283580.4879868641</v>
+        <v>139427.230968917</v>
       </c>
       <c r="S12">
-        <v>0.05401743775184498</v>
+        <v>0.02258680176423576</v>
       </c>
       <c r="T12">
-        <v>0.06993764301207903</v>
+        <v>0.03093496581929929</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I13">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J13">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>20612.57784939232</v>
+        <v>22327.8174728722</v>
       </c>
       <c r="R13">
-        <v>185513.2006445309</v>
+        <v>200950.3572558498</v>
       </c>
       <c r="S13">
-        <v>0.03533722591106361</v>
+        <v>0.0325533674609237</v>
       </c>
       <c r="T13">
-        <v>0.04575193481332321</v>
+        <v>0.04458521043476463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H14">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I14">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J14">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>27770.4539524288</v>
+        <v>25983.80336370888</v>
       </c>
       <c r="R14">
-        <v>166622.7237145728</v>
+        <v>155902.8201822533</v>
       </c>
       <c r="S14">
-        <v>0.04760834923899131</v>
+        <v>0.03788369821452105</v>
       </c>
       <c r="T14">
-        <v>0.04109309724225407</v>
+        <v>0.03459043387690562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H15">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I15">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J15">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>20040.06562932486</v>
+        <v>15310.64661348768</v>
       </c>
       <c r="R15">
-        <v>180360.5906639237</v>
+        <v>137795.8195213891</v>
       </c>
       <c r="S15">
-        <v>0.03435573811243949</v>
+        <v>0.02232251790300472</v>
       </c>
       <c r="T15">
-        <v>0.04448117955099053</v>
+        <v>0.03057300168205167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H16">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I16">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J16">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>14263.76079907821</v>
+        <v>10005.56548637214</v>
       </c>
       <c r="R16">
-        <v>128373.8471917039</v>
+        <v>90050.08937734924</v>
       </c>
       <c r="S16">
-        <v>0.0244531150534022</v>
+        <v>0.01458784990194157</v>
       </c>
       <c r="T16">
-        <v>0.03166002132486795</v>
+        <v>0.01997957226543624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H17">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I17">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J17">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>23607.85304712828</v>
+        <v>22178.71081274733</v>
       </c>
       <c r="R17">
-        <v>141647.1182827697</v>
+        <v>133072.264876484</v>
       </c>
       <c r="S17">
-        <v>0.04047218365878276</v>
+        <v>0.03233597389328936</v>
       </c>
       <c r="T17">
-        <v>0.03493352332692566</v>
+        <v>0.02952497827607649</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H18">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I18">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J18">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>20541.04158812099</v>
+        <v>7715.927030201481</v>
       </c>
       <c r="R18">
-        <v>184869.3742930889</v>
+        <v>69443.34327181333</v>
       </c>
       <c r="S18">
-        <v>0.03521458753735567</v>
+        <v>0.01124961757775922</v>
       </c>
       <c r="T18">
-        <v>0.04559315203581771</v>
+        <v>0.01540751713680899</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H19">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I19">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J19">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>13437.57603577175</v>
+        <v>11120.6274592423</v>
       </c>
       <c r="R19">
-        <v>120938.1843219457</v>
+        <v>100085.6471331807</v>
       </c>
       <c r="S19">
-        <v>0.02303674307709939</v>
+        <v>0.01621358077280019</v>
       </c>
       <c r="T19">
-        <v>0.02982621132251189</v>
+        <v>0.02220617917713384</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H20">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I20">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J20">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>35348.28641377349</v>
+        <v>57010.7632839982</v>
       </c>
       <c r="R20">
-        <v>141393.145655094</v>
+        <v>228043.0531359928</v>
       </c>
       <c r="S20">
-        <v>0.06059942583112279</v>
+        <v>0.08312018533233705</v>
       </c>
       <c r="T20">
-        <v>0.0348708876812389</v>
+        <v>0.0505963146873603</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H21">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I21">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J21">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>25508.47677281984</v>
+        <v>33592.91315395416</v>
       </c>
       <c r="R21">
-        <v>153050.860636919</v>
+        <v>201557.478923725</v>
       </c>
       <c r="S21">
-        <v>0.04373052283680411</v>
+        <v>0.04897757908099263</v>
       </c>
       <c r="T21">
-        <v>0.03774595540724272</v>
+        <v>0.04471991359076479</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H22">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I22">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J22">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>18155.96903554665</v>
+        <v>21953.09583749416</v>
       </c>
       <c r="R22">
-        <v>108935.8142132799</v>
+        <v>131718.575024965</v>
       </c>
       <c r="S22">
-        <v>0.0311257322655692</v>
+        <v>0.03200703322530751</v>
       </c>
       <c r="T22">
-        <v>0.02686614350572472</v>
+        <v>0.02922463271950436</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H23">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I23">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J23">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>30049.82030735513</v>
+        <v>48662.05360281434</v>
       </c>
       <c r="R23">
-        <v>120199.2812294205</v>
+        <v>194648.2144112574</v>
       </c>
       <c r="S23">
-        <v>0.05151598681865889</v>
+        <v>0.07094798738211847</v>
       </c>
       <c r="T23">
-        <v>0.02964398037611497</v>
+        <v>0.04318694287877142</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H24">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I24">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J24">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>26146.15600227268</v>
+        <v>16929.42650766084</v>
       </c>
       <c r="R24">
-        <v>156876.9360136361</v>
+        <v>101576.559045965</v>
       </c>
       <c r="S24">
-        <v>0.04482372986576542</v>
+        <v>0.02468265618330907</v>
       </c>
       <c r="T24">
-        <v>0.03868955591986522</v>
+        <v>0.02253697043463111</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H25">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I25">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J25">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>17104.34000225537</v>
+        <v>24399.6404519395</v>
       </c>
       <c r="R25">
-        <v>102626.0400135322</v>
+        <v>146397.842711637</v>
       </c>
       <c r="S25">
-        <v>0.02932286932452552</v>
+        <v>0.03557403057918448</v>
       </c>
       <c r="T25">
-        <v>0.0253100042290012</v>
+        <v>0.0324815477495445</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H26">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I26">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J26">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>4287.015991505276</v>
+        <v>6653.751411744053</v>
       </c>
       <c r="R26">
-        <v>25722.09594903166</v>
+        <v>39922.50847046432</v>
       </c>
       <c r="S26">
-        <v>0.00734945690359784</v>
+        <v>0.009700993613160383</v>
       </c>
       <c r="T26">
-        <v>0.006343676099778593</v>
+        <v>0.008857677416184387</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H27">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I27">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J27">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>3093.650610497746</v>
+        <v>3920.643760008301</v>
       </c>
       <c r="R27">
-        <v>27842.85549447971</v>
+        <v>35285.79384007471</v>
       </c>
       <c r="S27">
-        <v>0.005303607889892413</v>
+        <v>0.005716194928500986</v>
       </c>
       <c r="T27">
-        <v>0.00686670546987713</v>
+        <v>0.007828921357499378</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H28">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I28">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J28">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>2201.943502594645</v>
+        <v>2562.155530057223</v>
       </c>
       <c r="R28">
-        <v>19817.4915233518</v>
+        <v>23059.39977051501</v>
       </c>
       <c r="S28">
-        <v>0.003774907513418055</v>
+        <v>0.00373555501173941</v>
       </c>
       <c r="T28">
-        <v>0.004887461254454439</v>
+        <v>0.00511622972612479</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H29">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I29">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J29">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>3644.421647248366</v>
+        <v>5679.369810313886</v>
       </c>
       <c r="R29">
-        <v>21866.5298834902</v>
+        <v>34076.21886188331</v>
       </c>
       <c r="S29">
-        <v>0.006247823634916327</v>
+        <v>0.008280371003849915</v>
       </c>
       <c r="T29">
-        <v>0.005392802487085553</v>
+        <v>0.007560550822230178</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H30">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I30">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J30">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>3170.987911155406</v>
+        <v>1975.840859457191</v>
       </c>
       <c r="R30">
-        <v>28538.89120039866</v>
+        <v>17782.56773511472</v>
       </c>
       <c r="S30">
-        <v>0.005436191290409305</v>
+        <v>0.00288072372592462</v>
       </c>
       <c r="T30">
-        <v>0.007038364306737847</v>
+        <v>0.003945449689005047</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H31">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I31">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J31">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>2074.402652945586</v>
+        <v>2847.692834674045</v>
       </c>
       <c r="R31">
-        <v>18669.62387651028</v>
+        <v>25629.2355120664</v>
       </c>
       <c r="S31">
-        <v>0.00355625752941954</v>
+        <v>0.004151860851407195</v>
       </c>
       <c r="T31">
-        <v>0.004604369994262953</v>
+        <v>0.005686403717773727</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H32">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I32">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J32">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>20662.11515764169</v>
+        <v>40973.58592565759</v>
       </c>
       <c r="R32">
-        <v>123972.6909458501</v>
+        <v>245841.5155539456</v>
       </c>
       <c r="S32">
-        <v>0.03542215032301364</v>
+        <v>0.05973840481499075</v>
       </c>
       <c r="T32">
-        <v>0.03057459229359705</v>
+        <v>0.05454529095770019</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H33">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I33">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J33">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>14910.45643362963</v>
+        <v>24143.19743010753</v>
       </c>
       <c r="R33">
-        <v>134194.1079026666</v>
+        <v>217288.7768709678</v>
       </c>
       <c r="S33">
-        <v>0.02556177937966042</v>
+        <v>0.03520014343447682</v>
       </c>
       <c r="T33">
-        <v>0.03309543501898428</v>
+        <v>0.04821024443151468</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H34">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I34">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J34">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>10612.69897555395</v>
+        <v>15777.67086104308</v>
       </c>
       <c r="R34">
-        <v>95514.29077998553</v>
+        <v>141999.0377493877</v>
       </c>
       <c r="S34">
-        <v>0.01819390781518961</v>
+        <v>0.02300342690641735</v>
       </c>
       <c r="T34">
-        <v>0.02355607897618108</v>
+        <v>0.03150557712883209</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H35">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I35">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J35">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>17565.00556742914</v>
+        <v>34973.37554807841</v>
       </c>
       <c r="R35">
-        <v>105390.0334045749</v>
+        <v>209840.2532884705</v>
       </c>
       <c r="S35">
-        <v>0.03011261252234069</v>
+        <v>0.05099025674805582</v>
       </c>
       <c r="T35">
-        <v>0.02599167025067559</v>
+        <v>0.04655762735788027</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H36">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I36">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J36">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>15283.19873627932</v>
+        <v>12167.16408844228</v>
       </c>
       <c r="R36">
-        <v>137548.7886265139</v>
+        <v>109504.4767959805</v>
       </c>
       <c r="S36">
-        <v>0.02620079110597541</v>
+        <v>0.0177394035046035</v>
       </c>
       <c r="T36">
-        <v>0.03392277848167977</v>
+        <v>0.02429595153832684</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>125.5465903333333</v>
+        <v>203.2866083333333</v>
       </c>
       <c r="H37">
-        <v>376.639771</v>
+        <v>609.859825</v>
       </c>
       <c r="I37">
-        <v>0.1526313224401841</v>
+        <v>0.2122386602069528</v>
       </c>
       <c r="J37">
-        <v>0.1693322200949974</v>
+        <v>0.2401313815369032</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>9997.990813052551</v>
+        <v>17536.00034492613</v>
       </c>
       <c r="R37">
-        <v>89981.91731747297</v>
+        <v>157824.0031043351</v>
       </c>
       <c r="S37">
-        <v>0.01714008129400429</v>
+        <v>0.02556702479840862</v>
       </c>
       <c r="T37">
-        <v>0.02219166507387963</v>
+        <v>0.03501669012264912</v>
       </c>
     </row>
   </sheetData>
